--- a/docs/output/Data_Dictionary.xlsx
+++ b/docs/output/Data_Dictionary.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RProjects\github\toothheart\output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RProjects\github\cvd-and-teeth\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A6CD782-F8BA-4EE4-82B8-D4ECE9E71CA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B642822-661C-434F-BD16-123825DE4282}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="1125" windowWidth="25980" windowHeight="14385" tabRatio="842" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-12480" yWindow="-15405" windowWidth="25980" windowHeight="14385" tabRatio="842" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="232">
   <si>
     <t>Fieldname</t>
   </si>
@@ -754,15 +754,6 @@
   </si>
   <si>
     <t>RMTETH4</t>
-  </si>
-  <si>
-    <t>SOMECOLl</t>
-  </si>
-  <si>
-    <t>HS</t>
-  </si>
-  <si>
-    <t>&lt;</t>
   </si>
   <si>
     <t>"Y</t>
@@ -1761,7 +1752,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>231</v>
+        <v>43</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>14</v>
@@ -2725,7 +2716,7 @@
         <v>75</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>127</v>
@@ -2754,9 +2745,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2908,9 +2897,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3283,9 +3270,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3372,9 +3357,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3641,9 +3624,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3965,7 +3946,7 @@
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>232</v>
+        <v>40</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>7</v>
@@ -4163,9 +4144,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4179,7 +4158,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="22" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>233</v>
+        <v>44</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>7</v>
